--- a/natmiOut/OldD4/LR-pairs_lrc2p/Itgav-Thy1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Itgav-Thy1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="H2">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="I2">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="J2">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.65881413873825</v>
+        <v>3.687165</v>
       </c>
       <c r="N2">
-        <v>2.65881413873825</v>
+        <v>11.061495</v>
       </c>
       <c r="O2">
-        <v>0.02281023825497863</v>
+        <v>0.02835531825299169</v>
       </c>
       <c r="P2">
-        <v>0.02281023825497863</v>
+        <v>0.03214637466498473</v>
       </c>
       <c r="Q2">
-        <v>20.55521061092869</v>
+        <v>39.39446237142</v>
       </c>
       <c r="R2">
-        <v>20.55521061092869</v>
+        <v>354.55016134278</v>
       </c>
       <c r="S2">
-        <v>0.000820413199406726</v>
+        <v>0.001334198814539178</v>
       </c>
       <c r="T2">
-        <v>0.000820413199406726</v>
+        <v>0.001572837534457596</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="H3">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="I3">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="J3">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>72.726998887748</v>
+        <v>78.44595600000001</v>
       </c>
       <c r="N3">
-        <v>72.726998887748</v>
+        <v>235.337868</v>
       </c>
       <c r="O3">
-        <v>0.6239323569214748</v>
+        <v>0.6032710898590605</v>
       </c>
       <c r="P3">
-        <v>0.6239323569214748</v>
+        <v>0.6839273784951058</v>
       </c>
       <c r="Q3">
-        <v>562.2501992365121</v>
+        <v>838.1334336358882</v>
       </c>
       <c r="R3">
-        <v>562.2501992365121</v>
+        <v>7543.200902722992</v>
       </c>
       <c r="S3">
-        <v>0.02244090287148148</v>
+        <v>0.02838563001671813</v>
       </c>
       <c r="T3">
-        <v>0.02244090287148148</v>
+        <v>0.03346276720005995</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="H4">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="I4">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="J4">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>41.1765003091901</v>
+        <v>1.681161666666666</v>
       </c>
       <c r="N4">
-        <v>41.1765003091901</v>
+        <v>5.043485</v>
       </c>
       <c r="O4">
-        <v>0.3532574048235465</v>
+        <v>0.01292859801312479</v>
       </c>
       <c r="P4">
-        <v>0.3532574048235465</v>
+        <v>0.01465712893485288</v>
       </c>
       <c r="Q4">
-        <v>318.3342617841016</v>
+        <v>17.96189213603778</v>
       </c>
       <c r="R4">
-        <v>318.3342617841016</v>
+        <v>161.65702922434</v>
       </c>
       <c r="S4">
-        <v>0.01270556819555125</v>
+        <v>0.0006083275098118405</v>
       </c>
       <c r="T4">
-        <v>0.01270556819555125</v>
+        <v>0.00071713475551667</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>67.428510026982</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="H5">
-        <v>67.428510026982</v>
+        <v>32.052644</v>
       </c>
       <c r="I5">
-        <v>0.3136984907013329</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="J5">
-        <v>0.3136984907013329</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>2.65881413873825</v>
+        <v>0.214788</v>
       </c>
       <c r="N5">
-        <v>2.65881413873825</v>
+        <v>0.644364</v>
       </c>
       <c r="O5">
-        <v>0.02281023825497863</v>
+        <v>0.001651779103165597</v>
       </c>
       <c r="P5">
-        <v>0.02281023825497863</v>
+        <v>0.001872619077676952</v>
       </c>
       <c r="Q5">
-        <v>179.2798758137936</v>
+        <v>2.294841099824</v>
       </c>
       <c r="R5">
-        <v>179.2798758137936</v>
+        <v>20.653569898416</v>
       </c>
       <c r="S5">
-        <v>0.0071555373131246</v>
+        <v>7.772093057328352E-05</v>
       </c>
       <c r="T5">
-        <v>0.0071555373131246</v>
+        <v>9.162232456401547E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>67.428510026982</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="H6">
-        <v>67.428510026982</v>
+        <v>32.052644</v>
       </c>
       <c r="I6">
-        <v>0.3136984907013329</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="J6">
-        <v>0.3136984907013329</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>72.726998887748</v>
+        <v>46.005266</v>
       </c>
       <c r="N6">
-        <v>72.726998887748</v>
+        <v>92.010532</v>
       </c>
       <c r="O6">
-        <v>0.6239323569214748</v>
+        <v>0.3537932147716573</v>
       </c>
       <c r="P6">
-        <v>0.6239323569214748</v>
+        <v>0.2673964988273796</v>
       </c>
       <c r="Q6">
-        <v>4903.873173734824</v>
+        <v>491.5301377411014</v>
       </c>
       <c r="R6">
-        <v>4903.873173734824</v>
+        <v>2949.180826446608</v>
       </c>
       <c r="S6">
-        <v>0.195726638665992</v>
+        <v>0.01664698253529732</v>
       </c>
       <c r="T6">
-        <v>0.195726638665992</v>
+        <v>0.01308300716087759</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="H7">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="I7">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="J7">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>41.1765003091901</v>
+        <v>3.687165</v>
       </c>
       <c r="N7">
-        <v>41.1765003091901</v>
+        <v>11.061495</v>
       </c>
       <c r="O7">
-        <v>0.3532574048235465</v>
+        <v>0.02835531825299169</v>
       </c>
       <c r="P7">
-        <v>0.3532574048235465</v>
+        <v>0.03214637466498473</v>
       </c>
       <c r="Q7">
-        <v>2776.470063974252</v>
+        <v>259.437600383025</v>
       </c>
       <c r="R7">
-        <v>2776.470063974252</v>
+        <v>2334.938403447225</v>
       </c>
       <c r="S7">
-        <v>0.1108163147222163</v>
+        <v>0.008786548109590155</v>
       </c>
       <c r="T7">
-        <v>0.1108163147222163</v>
+        <v>0.01035813591983597</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,122 +903,122 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>55.0371038636864</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="H8">
-        <v>55.0371038636864</v>
+        <v>211.087055</v>
       </c>
       <c r="I8">
-        <v>0.256049798634171</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="J8">
-        <v>0.256049798634171</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.65881413873825</v>
+        <v>78.44595600000001</v>
       </c>
       <c r="N8">
-        <v>2.65881413873825</v>
+        <v>235.337868</v>
       </c>
       <c r="O8">
-        <v>0.02281023825497863</v>
+        <v>0.6032710898590605</v>
       </c>
       <c r="P8">
-        <v>0.02281023825497863</v>
+        <v>0.6839273784951058</v>
       </c>
       <c r="Q8">
-        <v>146.333429907975</v>
+        <v>5519.641942899861</v>
       </c>
       <c r="R8">
-        <v>146.333429907975</v>
+        <v>49676.77748609874</v>
       </c>
       <c r="S8">
-        <v>0.005840556911984741</v>
+        <v>0.1869374346948923</v>
       </c>
       <c r="T8">
-        <v>0.005840556911984741</v>
+        <v>0.2203736134969475</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>55.0371038636864</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="H9">
-        <v>55.0371038636864</v>
+        <v>211.087055</v>
       </c>
       <c r="I9">
-        <v>0.256049798634171</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="J9">
-        <v>0.256049798634171</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>72.726998887748</v>
+        <v>1.681161666666666</v>
       </c>
       <c r="N9">
-        <v>72.726998887748</v>
+        <v>5.043485</v>
       </c>
       <c r="O9">
-        <v>0.6239323569214748</v>
+        <v>0.01292859801312479</v>
       </c>
       <c r="P9">
-        <v>0.6239323569214748</v>
+        <v>0.01465712893485288</v>
       </c>
       <c r="Q9">
-        <v>4002.683391479191</v>
+        <v>118.2904883985194</v>
       </c>
       <c r="R9">
-        <v>4002.683391479191</v>
+        <v>1064.614395586675</v>
       </c>
       <c r="S9">
-        <v>0.1597577543510873</v>
+        <v>0.004006223715012871</v>
       </c>
       <c r="T9">
-        <v>0.1597577543510873</v>
+        <v>0.00472278865918702</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>55.0371038636864</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="H10">
-        <v>55.0371038636864</v>
+        <v>211.087055</v>
       </c>
       <c r="I10">
-        <v>0.256049798634171</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="J10">
-        <v>0.256049798634171</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>41.1765003091901</v>
+        <v>0.214788</v>
       </c>
       <c r="N10">
-        <v>41.1765003091901</v>
+        <v>0.644364</v>
       </c>
       <c r="O10">
-        <v>0.3532574048235465</v>
+        <v>0.001651779103165597</v>
       </c>
       <c r="P10">
-        <v>0.3532574048235465</v>
+        <v>0.001872619077676952</v>
       </c>
       <c r="Q10">
-        <v>2266.23532426001</v>
+        <v>15.11298878978</v>
       </c>
       <c r="R10">
-        <v>2266.23532426001</v>
+        <v>136.01689910802</v>
       </c>
       <c r="S10">
-        <v>0.09045148737109891</v>
+        <v>0.0005118417796227318</v>
       </c>
       <c r="T10">
-        <v>0.09045148737109891</v>
+        <v>0.0006033913041455234</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>60.7898063247479</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="H11">
-        <v>60.7898063247479</v>
+        <v>211.087055</v>
       </c>
       <c r="I11">
-        <v>0.2828131674045428</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="J11">
-        <v>0.2828131674045428</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.65881413873825</v>
+        <v>46.005266</v>
       </c>
       <c r="N11">
-        <v>2.65881413873825</v>
+        <v>92.010532</v>
       </c>
       <c r="O11">
-        <v>0.02281023825497863</v>
+        <v>0.3537932147716573</v>
       </c>
       <c r="P11">
-        <v>0.02281023825497863</v>
+        <v>0.2673964988273796</v>
       </c>
       <c r="Q11">
-        <v>161.6287965473996</v>
+        <v>3237.038704810544</v>
       </c>
       <c r="R11">
-        <v>161.6287965473996</v>
+        <v>19422.23222886326</v>
       </c>
       <c r="S11">
-        <v>0.006451035730142777</v>
+        <v>0.1096309720350167</v>
       </c>
       <c r="T11">
-        <v>0.006451035730142777</v>
+        <v>0.08615992653004109</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>60.7898063247479</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="H12">
-        <v>60.7898063247479</v>
+        <v>177.273224</v>
       </c>
       <c r="I12">
-        <v>0.2828131674045428</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="J12">
-        <v>0.2828131674045428</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>72.726998887748</v>
+        <v>3.687165</v>
       </c>
       <c r="N12">
-        <v>72.726998887748</v>
+        <v>11.061495</v>
       </c>
       <c r="O12">
-        <v>0.6239323569214748</v>
+        <v>0.02835531825299169</v>
       </c>
       <c r="P12">
-        <v>0.6239323569214748</v>
+        <v>0.03214637466498473</v>
       </c>
       <c r="Q12">
-        <v>4421.060176966356</v>
+        <v>217.87854232332</v>
       </c>
       <c r="R12">
-        <v>4421.060176966356</v>
+        <v>1960.90688090988</v>
       </c>
       <c r="S12">
-        <v>0.176456286107144</v>
+        <v>0.007379039473634004</v>
       </c>
       <c r="T12">
-        <v>0.176456286107144</v>
+        <v>0.008698876153914452</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>60.7898063247479</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="H13">
-        <v>60.7898063247479</v>
+        <v>177.273224</v>
       </c>
       <c r="I13">
-        <v>0.2828131674045428</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="J13">
-        <v>0.2828131674045428</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>41.1765003091901</v>
+        <v>78.44595600000001</v>
       </c>
       <c r="N13">
-        <v>41.1765003091901</v>
+        <v>235.337868</v>
       </c>
       <c r="O13">
-        <v>0.3532574048235465</v>
+        <v>0.6032710898590605</v>
       </c>
       <c r="P13">
-        <v>0.3532574048235465</v>
+        <v>0.6839273784951058</v>
       </c>
       <c r="Q13">
-        <v>2503.111478926588</v>
+        <v>4635.455843294048</v>
       </c>
       <c r="R13">
-        <v>2503.111478926588</v>
+        <v>41719.10258964643</v>
       </c>
       <c r="S13">
-        <v>0.09990584556725601</v>
+        <v>0.1569921079937991</v>
       </c>
       <c r="T13">
-        <v>0.09990584556725601</v>
+        <v>0.18507217768107</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>23.9604846659102</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="H14">
-        <v>23.9604846659102</v>
+        <v>177.273224</v>
       </c>
       <c r="I14">
-        <v>0.1114716589935138</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="J14">
-        <v>0.1114716589935138</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>2.65881413873825</v>
+        <v>1.681161666666666</v>
       </c>
       <c r="N14">
-        <v>2.65881413873825</v>
+        <v>5.043485</v>
       </c>
       <c r="O14">
-        <v>0.02281023825497863</v>
+        <v>0.01292859801312479</v>
       </c>
       <c r="P14">
-        <v>0.02281023825497863</v>
+        <v>0.01465712893485288</v>
       </c>
       <c r="Q14">
-        <v>63.70647540074307</v>
+        <v>99.34164957173776</v>
       </c>
       <c r="R14">
-        <v>63.70647540074307</v>
+        <v>894.0748461456399</v>
       </c>
       <c r="S14">
-        <v>0.00254269510031978</v>
+        <v>0.003364470616284778</v>
       </c>
       <c r="T14">
-        <v>0.00254269510031978</v>
+        <v>0.003966249715714307</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,60 +1337,60 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>23.9604846659102</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="H15">
-        <v>23.9604846659102</v>
+        <v>177.273224</v>
       </c>
       <c r="I15">
-        <v>0.1114716589935138</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="J15">
-        <v>0.1114716589935138</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>72.726998887748</v>
+        <v>0.214788</v>
       </c>
       <c r="N15">
-        <v>72.726998887748</v>
+        <v>0.644364</v>
       </c>
       <c r="O15">
-        <v>0.6239323569214748</v>
+        <v>0.001651779103165597</v>
       </c>
       <c r="P15">
-        <v>0.6239323569214748</v>
+        <v>0.001872619077676952</v>
       </c>
       <c r="Q15">
-        <v>1742.574141647554</v>
+        <v>12.692053745504</v>
       </c>
       <c r="R15">
-        <v>1742.574141647554</v>
+        <v>114.228483709536</v>
       </c>
       <c r="S15">
-        <v>0.06955077492576994</v>
+        <v>0.0004298503404276457</v>
       </c>
       <c r="T15">
-        <v>0.06955077492576994</v>
+        <v>0.0005067346352406191</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,52 +1402,672 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>23.9604846659102</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="H16">
-        <v>23.9604846659102</v>
+        <v>177.273224</v>
       </c>
       <c r="I16">
-        <v>0.1114716589935138</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="J16">
-        <v>0.1114716589935138</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>41.1765003091901</v>
+        <v>46.005266</v>
       </c>
       <c r="N16">
-        <v>41.1765003091901</v>
+        <v>92.010532</v>
       </c>
       <c r="O16">
-        <v>0.3532574048235465</v>
+        <v>0.3537932147716573</v>
       </c>
       <c r="P16">
-        <v>0.3532574048235465</v>
+        <v>0.2673964988273796</v>
       </c>
       <c r="Q16">
-        <v>986.608904254196</v>
+        <v>2718.500608265861</v>
       </c>
       <c r="R16">
-        <v>986.608904254196</v>
+        <v>16311.00364959517</v>
       </c>
       <c r="S16">
-        <v>0.03937818896742402</v>
+        <v>0.09206929275175706</v>
       </c>
       <c r="T16">
-        <v>0.03937818896742402</v>
+        <v>0.07235805130534187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>60.83231733333333</v>
+      </c>
+      <c r="H17">
+        <v>182.496952</v>
+      </c>
+      <c r="I17">
+        <v>0.2679031251727568</v>
+      </c>
+      <c r="J17">
+        <v>0.2785759485989269</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.687165</v>
+      </c>
+      <c r="N17">
+        <v>11.061495</v>
+      </c>
+      <c r="O17">
+        <v>0.02835531825299169</v>
+      </c>
+      <c r="P17">
+        <v>0.03214637466498473</v>
+      </c>
+      <c r="Q17">
+        <v>224.29879134036</v>
+      </c>
+      <c r="R17">
+        <v>2018.68912206324</v>
+      </c>
+      <c r="S17">
+        <v>0.007596478375244588</v>
+      </c>
+      <c r="T17">
+        <v>0.008955206816314629</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>60.83231733333333</v>
+      </c>
+      <c r="H18">
+        <v>182.496952</v>
+      </c>
+      <c r="I18">
+        <v>0.2679031251727568</v>
+      </c>
+      <c r="J18">
+        <v>0.2785759485989269</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>78.44595600000001</v>
+      </c>
+      <c r="N18">
+        <v>235.337868</v>
+      </c>
+      <c r="O18">
+        <v>0.6032710898590605</v>
+      </c>
+      <c r="P18">
+        <v>0.6839273784951058</v>
+      </c>
+      <c r="Q18">
+        <v>4772.049288908705</v>
+      </c>
+      <c r="R18">
+        <v>42948.44360017834</v>
+      </c>
+      <c r="S18">
+        <v>0.1616182102996173</v>
+      </c>
+      <c r="T18">
+        <v>0.1905257182370514</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>60.83231733333333</v>
+      </c>
+      <c r="H19">
+        <v>182.496952</v>
+      </c>
+      <c r="I19">
+        <v>0.2679031251727568</v>
+      </c>
+      <c r="J19">
+        <v>0.2785759485989269</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>1.681161666666666</v>
+      </c>
+      <c r="N19">
+        <v>5.043485</v>
+      </c>
+      <c r="O19">
+        <v>0.01292859801312479</v>
+      </c>
+      <c r="P19">
+        <v>0.01465712893485288</v>
+      </c>
+      <c r="Q19">
+        <v>102.2689599953022</v>
+      </c>
+      <c r="R19">
+        <v>920.4206399577199</v>
+      </c>
+      <c r="S19">
+        <v>0.003463611811818425</v>
+      </c>
+      <c r="T19">
+        <v>0.00408312359676342</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>60.83231733333333</v>
+      </c>
+      <c r="H20">
+        <v>182.496952</v>
+      </c>
+      <c r="I20">
+        <v>0.2679031251727568</v>
+      </c>
+      <c r="J20">
+        <v>0.2785759485989269</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.214788</v>
+      </c>
+      <c r="N20">
+        <v>0.644364</v>
+      </c>
+      <c r="O20">
+        <v>0.001651779103165597</v>
+      </c>
+      <c r="P20">
+        <v>0.001872619077676952</v>
+      </c>
+      <c r="Q20">
+        <v>13.066051775392</v>
+      </c>
+      <c r="R20">
+        <v>117.594465978528</v>
+      </c>
+      <c r="S20">
+        <v>0.0004425167838331169</v>
+      </c>
+      <c r="T20">
+        <v>0.0005216666359283044</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>60.83231733333333</v>
+      </c>
+      <c r="H21">
+        <v>182.496952</v>
+      </c>
+      <c r="I21">
+        <v>0.2679031251727568</v>
+      </c>
+      <c r="J21">
+        <v>0.2785759485989269</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>46.005266</v>
+      </c>
+      <c r="N21">
+        <v>92.010532</v>
+      </c>
+      <c r="O21">
+        <v>0.3537932147716573</v>
+      </c>
+      <c r="P21">
+        <v>0.2673964988273796</v>
+      </c>
+      <c r="Q21">
+        <v>2798.606940316411</v>
+      </c>
+      <c r="R21">
+        <v>16791.64164189846</v>
+      </c>
+      <c r="S21">
+        <v>0.09478230790224335</v>
+      </c>
+      <c r="T21">
+        <v>0.07449023331286912</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>26.0983795</v>
+      </c>
+      <c r="H22">
+        <v>52.196759</v>
+      </c>
+      <c r="I22">
+        <v>0.1149362335102661</v>
+      </c>
+      <c r="J22">
+        <v>0.07967673702415903</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.687165</v>
+      </c>
+      <c r="N22">
+        <v>11.061495</v>
+      </c>
+      <c r="O22">
+        <v>0.02835531825299169</v>
+      </c>
+      <c r="P22">
+        <v>0.03214637466498473</v>
+      </c>
+      <c r="Q22">
+        <v>96.2290314491175</v>
+      </c>
+      <c r="R22">
+        <v>577.374188694705</v>
+      </c>
+      <c r="S22">
+        <v>0.003259053479983765</v>
+      </c>
+      <c r="T22">
+        <v>0.002561318240462076</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>26.0983795</v>
+      </c>
+      <c r="H23">
+        <v>52.196759</v>
+      </c>
+      <c r="I23">
+        <v>0.1149362335102661</v>
+      </c>
+      <c r="J23">
+        <v>0.07967673702415903</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>78.44595600000001</v>
+      </c>
+      <c r="N23">
+        <v>235.337868</v>
+      </c>
+      <c r="O23">
+        <v>0.6032710898590605</v>
+      </c>
+      <c r="P23">
+        <v>0.6839273784951058</v>
+      </c>
+      <c r="Q23">
+        <v>2047.312329928302</v>
+      </c>
+      <c r="R23">
+        <v>12283.87397956981</v>
+      </c>
+      <c r="S23">
+        <v>0.06933770685403373</v>
+      </c>
+      <c r="T23">
+        <v>0.05449310187997702</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>26.0983795</v>
+      </c>
+      <c r="H24">
+        <v>52.196759</v>
+      </c>
+      <c r="I24">
+        <v>0.1149362335102661</v>
+      </c>
+      <c r="J24">
+        <v>0.07967673702415903</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>1.681161666666666</v>
+      </c>
+      <c r="N24">
+        <v>5.043485</v>
+      </c>
+      <c r="O24">
+        <v>0.01292859801312479</v>
+      </c>
+      <c r="P24">
+        <v>0.01465712893485288</v>
+      </c>
+      <c r="Q24">
+        <v>43.87559517751916</v>
+      </c>
+      <c r="R24">
+        <v>263.253571065115</v>
+      </c>
+      <c r="S24">
+        <v>0.001485964360196873</v>
+      </c>
+      <c r="T24">
+        <v>0.001167832207671465</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>26.0983795</v>
+      </c>
+      <c r="H25">
+        <v>52.196759</v>
+      </c>
+      <c r="I25">
+        <v>0.1149362335102661</v>
+      </c>
+      <c r="J25">
+        <v>0.07967673702415903</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.214788</v>
+      </c>
+      <c r="N25">
+        <v>0.644364</v>
+      </c>
+      <c r="O25">
+        <v>0.001651779103165597</v>
+      </c>
+      <c r="P25">
+        <v>0.001872619077676952</v>
+      </c>
+      <c r="Q25">
+        <v>5.605618736046</v>
+      </c>
+      <c r="R25">
+        <v>33.633712416276</v>
+      </c>
+      <c r="S25">
+        <v>0.000189849268708819</v>
+      </c>
+      <c r="T25">
+        <v>0.0001492041777984897</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>26.0983795</v>
+      </c>
+      <c r="H26">
+        <v>52.196759</v>
+      </c>
+      <c r="I26">
+        <v>0.1149362335102661</v>
+      </c>
+      <c r="J26">
+        <v>0.07967673702415903</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>46.005266</v>
+      </c>
+      <c r="N26">
+        <v>92.010532</v>
+      </c>
+      <c r="O26">
+        <v>0.3537932147716573</v>
+      </c>
+      <c r="P26">
+        <v>0.2673964988273796</v>
+      </c>
+      <c r="Q26">
+        <v>1200.662891066447</v>
+      </c>
+      <c r="R26">
+        <v>4802.651564265788</v>
+      </c>
+      <c r="S26">
+        <v>0.04066365954734295</v>
+      </c>
+      <c r="T26">
+        <v>0.02130528051824998</v>
       </c>
     </row>
   </sheetData>
